--- a/data_file_template.xlsx
+++ b/data_file_template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vensberg\Desktop\Work\Projects\Maloof_metadata_database\Templates_data_upload\20171114_tested_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Desktop\Data Base Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E0E50F9-6B38-42C1-A964-8095C83F6C91}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6470"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="9108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <definedName name="type">list!$B$2:$B$12</definedName>
     <definedName name="types">list!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Data_file_name VARCHAR(65)</t>
   </si>
@@ -113,12 +114,15 @@
   </si>
   <si>
     <t>other</t>
+  </si>
+  <si>
+    <t>Data_file_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -148,9 +152,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -182,7 +189,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -460,112 +467,117 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.54296875" customWidth="1"/>
-    <col min="2" max="2" width="15.90625" customWidth="1"/>
-    <col min="3" max="4" width="14.81640625" customWidth="1"/>
-    <col min="5" max="5" width="16.81640625" customWidth="1"/>
-    <col min="6" max="6" width="15.36328125" customWidth="1"/>
-    <col min="7" max="7" width="14.7265625" customWidth="1"/>
-    <col min="8" max="8" width="24.54296875" customWidth="1"/>
-    <col min="9" max="9" width="17.90625" customWidth="1"/>
-    <col min="10" max="11" width="16.81640625" customWidth="1"/>
-    <col min="12" max="12" width="19.26953125" customWidth="1"/>
+    <col min="2" max="2" width="42.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="4" max="5" width="14.77734375" customWidth="1"/>
+    <col min="6" max="6" width="16.77734375" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" customWidth="1"/>
+    <col min="10" max="10" width="17.88671875" customWidth="1"/>
+    <col min="11" max="12" width="16.77734375" customWidth="1"/>
+    <col min="13" max="13" width="19.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="7">
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Text should not exceed 65 characters." prompt="Text should not exceed 65 characters." sqref="A1:A1048576">
+  <dataValidations count="8">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Enter an integer" sqref="H1 H2:H1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
+      <formula1>0</formula1>
+      <formula2>99999999999</formula2>
+    </dataValidation>
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Text should not exceed 65 characters." prompt="Text should not exceed 65 characters." sqref="B1:B1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
       <formula2>65</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Text should not exceed 45 characters." prompt="Text should not exceed 45 characters." sqref="L1:L1048576 F1:F1048576 H1:H1048576">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Text should not exceed 45 characters." prompt="Text should not exceed 45 characters." sqref="M1:M1048576 I1:I1048576 G1:G1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>0</formula1>
       <formula2>45</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Enter an integer" sqref="G1:G1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The inegrer should not exceed 11 digits." prompt="Sample id associated with this file" sqref="L1:L1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>0</formula1>
       <formula2>99999999999</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The inegrer should not exceed 11 digits." prompt="Sample id associated with this file" sqref="K1:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select from drop-down menu" sqref="D1:D1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
+      <formula1>file_status</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
+      <formula1>type</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The inegrer should not exceed 11 digits." prompt="Library pool id (if any) associated with this file " sqref="K1:K1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>0</formula1>
       <formula2>99999999999</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select from drop-down menu" sqref="C1:C1048576">
-      <formula1>file_status</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
-      <formula1>type</formula1>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The inegrer should not exceed 11 digits." prompt="Library pool id (if any) associated with this file " sqref="J1:J1048576">
-      <formula1>0</formula1>
-      <formula2>99999999999</formula2>
-    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Primary Key" prompt="Leave blank, will be autogenerated when uploaded" sqref="A1:A1048576" xr:uid="{4B58C04F-D13F-47CC-887A-DA43830D96F8}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.90625" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -573,7 +585,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -581,7 +593,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -589,7 +601,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -597,42 +609,42 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>26</v>
       </c>
